--- a/data_test.xlsx
+++ b/data_test.xlsx
@@ -2,21 +2,42 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>等待开源</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -689,6 +710,78 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7162800" y="1289050"/>
+          <a:ext cx="5892800" cy="4165600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>等待开源</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -940,31 +1033,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="6" spans="3:3">
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -974,14 +1074,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
